--- a/data_impute_project/corr_combinations/mammals_without_humans/combination_2_ABCDE_correlation_results.xlsx
+++ b/data_impute_project/corr_combinations/mammals_without_humans/combination_2_ABCDE_correlation_results.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variable 1</t>
+          <t>Feature 1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Variable 2</t>
+          <t>Feature 2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/data_impute_project/corr_combinations/mammals_without_humans/combination_2_ABCDE_correlation_results.xlsx
+++ b/data_impute_project/corr_combinations/mammals_without_humans/combination_2_ABCDE_correlation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>P-Value</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,6 +477,11 @@
       <c r="D2" t="n">
         <v>1.599925173809583e-23</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -490,6 +500,11 @@
       <c r="D3" t="n">
         <v>0.0001087895821624031</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -508,6 +523,11 @@
       <c r="D4" t="n">
         <v>0.1478484025072218</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Not Significant</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -526,6 +546,11 @@
       <c r="D5" t="n">
         <v>0.01963343329852083</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -544,6 +569,11 @@
       <c r="D6" t="n">
         <v>0.07837224663510695</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Not Significant</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -562,6 +592,11 @@
       <c r="D7" t="n">
         <v>0.1687857832550821</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Not Significant</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -580,6 +615,11 @@
       <c r="D8" t="n">
         <v>0.01692950700707026</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -598,6 +638,11 @@
       <c r="D9" t="n">
         <v>0.06221003183317381</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Not Significant</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -616,6 +661,11 @@
       <c r="D10" t="n">
         <v>0.06941572823595447</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Not Significant</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -633,6 +683,11 @@
       </c>
       <c r="D11" t="n">
         <v>1.485632990762395e-11</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
       </c>
     </row>
   </sheetData>
